--- a/bug_list.xlsx
+++ b/bug_list.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Preselect „Unknown“ area</t>
   </si>
   <si>
     <t>Buttons vergrössern (Höhe)</t>
-  </si>
-  <si>
-    <t>Wertung pro Tag / Wertung pro Jahr</t>
   </si>
   <si>
     <t>Mehrfarbige Routenfarben eintragen</t>
@@ -89,6 +86,15 @@
   </si>
   <si>
     <t>clLib.REST.getEntities =&gt; where with "@" not working</t>
+  </si>
+  <si>
+    <t>Wertung pro Jahr</t>
+  </si>
+  <si>
+    <t>Wertung pro Tag</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -539,13 +545,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8">
@@ -553,24 +559,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="2"/>
@@ -584,111 +590,119 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>

--- a/bug_list.xlsx
+++ b/bug_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Preselect „Unknown“ area</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>rating widget</t>
+  </si>
+  <si>
+    <t>descent star images still missing</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -708,9 +714,15 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
